--- a/data/snapshots/filtered_submissions/xlsx/submissions_ecosystem_addresses.xlsx
+++ b/data/snapshots/filtered_submissions/xlsx/submissions_ecosystem_addresses.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,352 +407,502 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>stars157cey3pkggh8zyun3vmp4ak5wpllwr0scwny89</v>
+        <v>stars1j0lq4ynh3ct6kr09uh8x3dau57dt6uzpw9f2m0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>stars12msfftw69xave94ytr4ngta74rnvhvhzc6jqv6</v>
+        <v>stars157cey3pkggh8zyun3vmp4ak5wpllwr0scwny89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>stars1xmnsjghk24v62hdm6n92ynqljwuaelwx76taa3</v>
+        <v>stars12msfftw69xave94ytr4ngta74rnvhvhzc6jqv6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>stars1ayp9ga949jfeu9d73gtge0mz29978eyr6um2es</v>
+        <v>stars1xmnsjghk24v62hdm6n92ynqljwuaelwx76taa3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>stars13lcdnj8dgmaug4k5azydxvrclvmvqxkq4sdkva</v>
+        <v>stars1ayp9ga949jfeu9d73gtge0mz29978eyr6um2es</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>stars1r3dupp4savup3pmmq6d5zfsc444stucy4t9kan</v>
+        <v>stars13lcdnj8dgmaug4k5azydxvrclvmvqxkq4sdkva</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>stars1xm2pj03uglrzpcsypuzrl7hrlumzdy7g8zdhcy</v>
+        <v>stars1r3dupp4savup3pmmq6d5zfsc444stucy4t9kan</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>stars14am952nzggxntteuq5napl6e27kerx4hcaa0d8</v>
+        <v>stars1xm2pj03uglrzpcsypuzrl7hrlumzdy7g8zdhcy</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>stars1wt29e7ec5f04xy6ez5m6agzrweh0vxsunjv7ce</v>
+        <v>stars14am952nzggxntteuq5napl6e27kerx4hcaa0d8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>stars1ga27mkfs8weg429dpw4qcf3n6r8jzwk5xyf8fm</v>
+        <v>stars1km4ce0jeu6xqe0qd0pj22q9k3dzav7njsaln3v</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>stars1pa0392fvwr23dre5yqytvqwyezpknawjyv8yzv</v>
+        <v>stars1wt29e7ec5f04xy6ez5m6agzrweh0vxsunjv7ce</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>stars1vx8r6x3lh6vh8wd4z2gt42sm359087e5lrdw5q</v>
+        <v>stars1ga27mkfs8weg429dpw4qcf3n6r8jzwk5xyf8fm</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>stars1trghmhd4d9qcf9d0lsyesxzj3aasqg9stcpx59</v>
+        <v>stars1pa0392fvwr23dre5yqytvqwyezpknawjyv8yzv</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>stars194v8uwee2fvs2s8fa5k7j03ktwc87h5yxz8m7c</v>
+        <v>stars1vx8r6x3lh6vh8wd4z2gt42sm359087e5lrdw5q</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>stars1c84vfnsz7futvraup0mf2ascx7mvq2jvsswc6w</v>
+        <v>stars1trghmhd4d9qcf9d0lsyesxzj3aasqg9stcpx59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>stars1zhqrfu9w3sugwykef3rq8t0vlxkz72vw3a4d8a</v>
+        <v>stars13ul82cuykzfly3fps55cdsu56eejr86ndudx4s</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>stars1r4lylz39yupmec3wk3ajur6k0w7ykkwvuwq62c</v>
+        <v>stars194v8uwee2fvs2s8fa5k7j03ktwc87h5yxz8m7c</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>stars1vtpt9kwjywm3xpake4v8sjmh2uxqq57hpejak9</v>
+        <v>stars10flwce9rgdwmecen8v8glfcfll7mphyw8vum2e</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>stars199ay07lscpghl3stkq2mtg40p6t4r2u6eqsl8w</v>
+        <v>stars1ccfvra0ksy09d6wx559fnrd2msppgdce9mgar8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>stars13sj7q26k96n24ydx9wp59y7yl2av06daj329hl</v>
+        <v>stars1c84vfnsz7futvraup0mf2ascx7mvq2jvsswc6w</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>stars1jue58ngp2888mqj6h5pmw0an6a20p87warwwjj</v>
+        <v>stars1zhqrfu9w3sugwykef3rq8t0vlxkz72vw3a4d8a</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>stars1c8y4ja3llw0cpz2amv5qf90mstntf6ljmzzsuk</v>
+        <v>stars1w875kdjh3yxxdurrctu2ze7hjm8mdp9qjvaywp</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>stars17kal5lvug02rnmx8fdukxe6l4eyk7j2ejff86j</v>
+        <v>stars1r4lylz39yupmec3wk3ajur6k0w7ykkwvuwq62c</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>stars10ye6m8k9g39t327yuvnj86y2kq639epzp4h9jv</v>
+        <v>stars1axw88ugkakle6g6ma7ev4f30lhzzyfaz3rus5u</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>stars10cznnk39d8g4l255jc5vg6zv98taedxsmsmunz</v>
+        <v>stars1vtpt9kwjywm3xpake4v8sjmh2uxqq57hpejak9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>stars15xa0cshe43u9zc85qc78ysl7myl05rt6n2l2uq</v>
+        <v>stars1puxpleecjkpss83q79ua8ac8e5fwwt79azzm6k</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>stars14qxxnvute7k8uceqtcljurzl0sv3dt4gkwvygg</v>
+        <v>stars199ay07lscpghl3stkq2mtg40p6t4r2u6eqsl8w</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>stars105qeucljvgkgf4vqc0nsksaflg3y7n3dnp5wdv</v>
+        <v>stars10yasutlku2ayktvhh2whrl7ht9hzlxwyaph20r</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>stars10tl8mxxdnz6laskppws3epuew6nhmq7jt6205s</v>
+        <v>stars13sj7q26k96n24ydx9wp59y7yl2av06daj329hl</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>stars1rxv6lnypkes9xd2k0ff2cgqqnaeu74zm3lm4ua</v>
+        <v>stars1jue58ngp2888mqj6h5pmw0an6a20p87warwwjj</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>stars1q2ke5n8rgr8ncjyeeqed3xyhyneluxgesludek</v>
+        <v>stars1c8y4ja3llw0cpz2amv5qf90mstntf6ljmzzsuk</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>stars1furt7dtl3ss9qpa9c0t8e6wkh3q3pehg9nhpw2</v>
+        <v>stars17kal5lvug02rnmx8fdukxe6l4eyk7j2ejff86j</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>stars1gd4xlwv34t0chqtcftnc49x2pc7atlcut8r689</v>
+        <v>stars10ye6m8k9g39t327yuvnj86y2kq639epzp4h9jv</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>stars1th8ktg3ulh0pxl5ym7csmemsc00ntnzcg55myu</v>
+        <v>stars10cznnk39d8g4l255jc5vg6zv98taedxsmsmunz</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>stars1fvnn96kq7xex7t365ltva3msu6ewntxf6ur826</v>
+        <v>stars15xa0cshe43u9zc85qc78ysl7myl05rt6n2l2uq</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>stars1mm96gp2feu4mtv8mvm2sr62njqr3xxxae55mf5</v>
+        <v>stars14qxxnvute7k8uceqtcljurzl0sv3dt4gkwvygg</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>stars15308cc5wx6ea5l565h5ncuuyulwc73z2nmwed2</v>
+        <v>stars12scnajjddcrkskht7mj7qplzxh7zkzfw9rtdsw</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>stars1xwz6xj36hk6cvu2pj6zrcdu76hupya70f6ndyx</v>
+        <v>stars105qeucljvgkgf4vqc0nsksaflg3y7n3dnp5wdv</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>stars1y9rxa93ply4qdypk42nrsqg5j50wn9pmna708n</v>
+        <v>stars10tl8mxxdnz6laskppws3epuew6nhmq7jt6205s</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>stars1dqc78lf5fu9e2krvj2zegdfvshu0l00k8rzynf</v>
+        <v>stars1yhqft6d2msmzpugdjtawsgdlwvgq3samp4qg0r</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>stars1qhcrmfmgdt6e550a544lzup5htv0svnkgjjmyj</v>
+        <v>stars1rxv6lnypkes9xd2k0ff2cgqqnaeu74zm3lm4ua</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>stars1s8qx0zvz8yd6e4x0mqmqf7fr9vvfn622wtp3g3</v>
+        <v>stars1m7a7nva00p82xr0tssye052r8sxsxvcygzqxwh</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>stars1xrrfek3qpz4ja8ccrjklfy064asyqq9k8wpjl7</v>
+        <v>stars1jume25ttjlcaqqjzjjqx9humvze3vcc8qf2kwl</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>stars1h8vvw7rxger9zc7e5gmytm9v66lft9xuu9whhr</v>
+        <v>stars1j3p24vjzvdprntyf082us5g2h0rlzmycaxzmml</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>stars12c4xfww70fe4h37hncdea8lt80dny8aegvpt8c</v>
+        <v>stars1q2ke5n8rgr8ncjyeeqed3xyhyneluxgesludek</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>stars1zeqwmhk9hqypxcp4973au358avnmchdjknvezs</v>
+        <v>stars1furt7dtl3ss9qpa9c0t8e6wkh3q3pehg9nhpw2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>stars167ucsyj55sxh3vfsa000qs27vddepl0y5qsrlc</v>
+        <v>stars1djv30wag0mth94tw6e3qwltl6swhzcwfc04sgm</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>stars1e9ypzs3qgrkwzpstvw7z4ag96qzv9qtdlg8luf</v>
+        <v>stars1gd4xlwv34t0chqtcftnc49x2pc7atlcut8r689</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>stars1kwstysea0p8stxe349hru6hfxc78zsjnd2wmdz</v>
+        <v>stars1th8ktg3ulh0pxl5ym7csmemsc00ntnzcg55myu</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>stars1jp3htxl899qsxx9q5aqm7f80v0sdu0sfnrz9ew</v>
+        <v>stars1fvnn96kq7xex7t365ltva3msu6ewntxf6ur826</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>stars1yu00g53fk729rz94n26rrd5z593674sgtatavl</v>
+        <v>stars1mm96gp2feu4mtv8mvm2sr62njqr3xxxae55mf5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>stars1prhnhdk2nl3xugdrm32jch9d8wrs9xgw7rf62v</v>
+        <v>stars15308cc5wx6ea5l565h5ncuuyulwc73z2nmwed2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>stars1purcdnexunusedgpj5q6ssqqunay34h5x2xlgy</v>
+        <v>stars1xwz6xj36hk6cvu2pj6zrcdu76hupya70f6ndyx</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>stars1mnzdlcjlvua94l47h77j420zhsdyechx6ukrrf</v>
+        <v>stars1n4a7szqm4gu0xegntwy245fjq8tlfh4vppj0e6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>stars1v4qfy658q6h2ypgkztz46thdfj2fstv50p323g</v>
+        <v>stars1y9rxa93ply4qdypk42nrsqg5j50wn9pmna708n</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>stars15heg4vvf24zs86zxr3gerpgu35ge3qjqggtr48</v>
+        <v>stars139a4n6w6dhwv60dj2clgwm6r0q84gju28z9at0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>stars1etwruy48q0j2s0vj3qpee6nu938fvde6zm3mn0</v>
+        <v>stars1g93ux6aj97ny7dh6g3u3eerv9nnvlh0dq428zc</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>stars12x9hund9zux7ynft6sd7jsqdnmphp6ghfpr8u7</v>
+        <v>stars1dqc78lf5fu9e2krvj2zegdfvshu0l00k8rzynf</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>stars1tz3ujjx9cq77unk09jvd2mdxvgdd0kv2n4774c</v>
+        <v>stars1qhcrmfmgdt6e550a544lzup5htv0svnkgjjmyj</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>stars1kfcxl4lm3md25yj66qkp4lkntyd78jy4laq3jv</v>
+        <v>stars1s8qx0zvz8yd6e4x0mqmqf7fr9vvfn622wtp3g3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>stars1vuy3a8zqtewxqx2hy555k22pdu2yk0x72cwyga</v>
+        <v>stars17y9ysn4uwusc0qv0d48wtc5rf4gnu6mqvjpvg9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>stars1njyvry0t3j5dy4rr6ar5zfglg3cy2e8uumq3nn</v>
+        <v>stars1v6fnklkj5av596xrv9sucdvcgk7llhra0nf24d</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>stars1rpnqgfdr79zv7zn6d8y888u7vqvpgtr5cqdnuw</v>
+        <v>stars1xrrfek3qpz4ja8ccrjklfy064asyqq9k8wpjl7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>stars1mhv799y0029rpjlu3j8vs8r23tyf7e49n4hmt3</v>
+        <v>stars1h8vvw7rxger9zc7e5gmytm9v66lft9xuu9whhr</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>stars14qxxnvute7k8uceqtcljurzl0sv3dt4gkwvygg</v>
+        <v>stars12c4xfww70fe4h37hncdea8lt80dny8aegvpt8c</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>stars1c6wu0lmqdk74k3qj4k4lyyhv8qyht0ajy42s4l</v>
+        <v>stars1zeqwmhk9hqypxcp4973au358avnmchdjknvezs</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>stars1258f0g6yea03a7hcnyfsysjjkdavy64ma8rlsy</v>
+        <v>stars1sm7c84n4fryl39490zf3gr9550cln6g7lm4cpz</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>stars1mgtyjevwq5pg5l6u8mac7skngzynt2ppdmh0at</v>
+        <v>stars1cdzspjq58ggdfxp3cjm9ggmdynkxrsvzjllfzc</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
+        <v>stars167ucsyj55sxh3vfsa000qs27vddepl0y5qsrlc</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>stars1e9ypzs3qgrkwzpstvw7z4ag96qzv9qtdlg8luf</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>stars1kwstysea0p8stxe349hru6hfxc78zsjnd2wmdz</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>stars1jp3htxl899qsxx9q5aqm7f80v0sdu0sfnrz9ew</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>stars1djntlfl6fvk3unn9md7edqxhhpapha6z3vpqrl</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>stars1sux3szs8gcgkqymrqwd82geztwmpg6680t7cjv</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>stars1yu00g53fk729rz94n26rrd5z593674sgtatavl</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>stars1prhnhdk2nl3xugdrm32jch9d8wrs9xgw7rf62v</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>stars1purcdnexunusedgpj5q6ssqqunay34h5x2xlgy</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>stars1xd04a8wf3ym4fvqz9nut4xu3ldt3stjx8wkt42</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>stars1z926ax906k0ycsuckele6x5hh66e2m4mxyqnss</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>stars1mnzdlcjlvua94l47h77j420zhsdyechx6ukrrf</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>stars1v4qfy658q6h2ypgkztz46thdfj2fstv50p323g</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>stars124w26nuf4hxe0u8ywk8rfxsl9vn6cgef9plkl0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>stars1yg4ztgrgnmn52dftk3xrxzxxt3s0e54erf08gn</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>stars15heg4vvf24zs86zxr3gerpgu35ge3qjqggtr48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>stars1etwruy48q0j2s0vj3qpee6nu938fvde6zm3mn0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>stars12x9hund9zux7ynft6sd7jsqdnmphp6ghfpr8u7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>stars1tz3ujjx9cq77unk09jvd2mdxvgdd0kv2n4774c</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>stars1kfcxl4lm3md25yj66qkp4lkntyd78jy4laq3jv</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>stars1vuy3a8zqtewxqx2hy555k22pdu2yk0x72cwyga</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>stars1njyvry0t3j5dy4rr6ar5zfglg3cy2e8uumq3nn</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>stars1rpnqgfdr79zv7zn6d8y888u7vqvpgtr5cqdnuw</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>stars1mhv799y0029rpjlu3j8vs8r23tyf7e49n4hmt3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>stars1s33zct2zhhaf60x4a90cpe9yquw99jj0qh8pdx</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>stars1c6wu0lmqdk74k3qj4k4lyyhv8qyht0ajy42s4l</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>stars199dm0ugv50k4qgcsxjc8p2rertstltxvkddcc6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>stars10wxn2lv29yqnw2uf4jf439kwy5ef00qdyvtgfh</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>stars1258f0g6yea03a7hcnyfsysjjkdavy64ma8rlsy</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>stars1mgtyjevwq5pg5l6u8mac7skngzynt2ppdmh0at</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
         <v>stars1lrmt70vunnfwa2z6ykdnts2rz0kzqvz6yl6fnk</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A104"/>
   </ignoredErrors>
 </worksheet>
 </file>